--- a/SDP/Filexel/data.xlsx
+++ b/SDP/Filexel/data.xlsx
@@ -5,17 +5,18 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowHeight="17360"/>
+    <workbookView windowHeight="16760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="listWbpRutan1Bandung" sheetId="1" r:id="rId1"/>
+    <sheet name="ListPetugasRutan1Bandung" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
   <si>
     <t>ISMAIL KURNIAWAn BIN zulahmad</t>
   </si>
@@ -333,6 +334,126 @@
   </si>
   <si>
     <t>DR. YOGA ARDIANTo BIN doniserigar</t>
+  </si>
+  <si>
+    <t>Daruna Kusumo</t>
+  </si>
+  <si>
+    <t>Raihan Sihombing</t>
+  </si>
+  <si>
+    <t>Drs. Cindy Dabukke</t>
+  </si>
+  <si>
+    <t>Raden Simanjuntak</t>
+  </si>
+  <si>
+    <t>Ir. Vanesa Suryatmi</t>
+  </si>
+  <si>
+    <t>KH. Lasmanto Rajasa, S.Farm</t>
+  </si>
+  <si>
+    <t>Nilam Latupono</t>
+  </si>
+  <si>
+    <t>Yosef Saptono</t>
+  </si>
+  <si>
+    <t>Dr. Karya Gunawan, S.Ked</t>
+  </si>
+  <si>
+    <t>T. Jagaraga Sinaga</t>
+  </si>
+  <si>
+    <t>Hilda Najmudin</t>
+  </si>
+  <si>
+    <t>Violet Suartini, S.Gz</t>
+  </si>
+  <si>
+    <t>Dr. Wirda Nuraini, M.Kom.</t>
+  </si>
+  <si>
+    <t>R.A. Uchita Rahimah</t>
+  </si>
+  <si>
+    <t>Ir. Umay Prasetya, S.IP</t>
+  </si>
+  <si>
+    <t>Cager Wastuti, M.Ak</t>
+  </si>
+  <si>
+    <t>Lukman Pertiwi</t>
+  </si>
+  <si>
+    <t>drg. Cahyanto Tampubolon, S.Psi</t>
+  </si>
+  <si>
+    <t>Halima Halim, S.H.</t>
+  </si>
+  <si>
+    <t>Adinata Firmansyah</t>
+  </si>
+  <si>
+    <t>Tgk. Kuncara Irawan</t>
+  </si>
+  <si>
+    <t>Anita Hidayanto</t>
+  </si>
+  <si>
+    <t>Puti Icha Maheswara</t>
+  </si>
+  <si>
+    <t>Paris Mandasari, S.Ked</t>
+  </si>
+  <si>
+    <t>Okto Irawan</t>
+  </si>
+  <si>
+    <t>dr. Nilam Siregar, M.Pd</t>
+  </si>
+  <si>
+    <t>R. Ghani Laksmiwati, S.T.</t>
+  </si>
+  <si>
+    <t>Gaiman Nasyiah, S.E.I</t>
+  </si>
+  <si>
+    <t>Kayla Prastuti</t>
+  </si>
+  <si>
+    <t>Diana Saragih</t>
+  </si>
+  <si>
+    <t>Drs. Tina Uyainah</t>
+  </si>
+  <si>
+    <t>Hendra Pudjiastuti</t>
+  </si>
+  <si>
+    <t>Wadi Siregar</t>
+  </si>
+  <si>
+    <t>Johan Sihotang, S.IP</t>
+  </si>
+  <si>
+    <t>Paris Ardianto</t>
+  </si>
+  <si>
+    <t>Drs. Leo Hutasoit, S.I.Kom</t>
+  </si>
+  <si>
+    <t>Dr. Kemba Simanjuntak, S.IP</t>
+  </si>
+  <si>
+    <t>drg. Rika Pranowo, S.E.I</t>
+  </si>
+  <si>
+    <t>dr. Suci Natsir</t>
+  </si>
+  <si>
+    <t>Tira Purwanti</t>
   </si>
 </sst>
 </file>
@@ -340,12 +461,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -354,30 +475,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color rgb="FF2D3748"/>
+      <name val="Roboto"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -392,6 +503,51 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -400,10 +556,18 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -416,8 +580,23 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -431,31 +610,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -466,14 +623,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -481,28 +630,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -513,187 +640,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -737,6 +864,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -748,6 +884,41 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -770,206 +941,165 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1318,544 +1448,761 @@
   <sheetPr/>
   <dimension ref="A1:A106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C40" sqref="C1:C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="45.953125" customWidth="1"/>
+    <col min="2" max="2" width="46.875" customWidth="1"/>
     <col min="3" max="3" width="44.921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
+      <c r="A3" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
+      <c r="A4" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
+      <c r="A5" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
+      <c r="A6" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
+      <c r="A7" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
+      <c r="A8" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
+      <c r="A9" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
+      <c r="A10" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
+      <c r="A11" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
+      <c r="A12" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
+      <c r="A13" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
+      <c r="A14" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="1" t="s">
-        <v>14</v>
+      <c r="A15" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
+      <c r="A16" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
+      <c r="A17" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="1" t="s">
-        <v>17</v>
+      <c r="A18" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="1" t="s">
-        <v>18</v>
+      <c r="A19" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="1" t="s">
-        <v>19</v>
+      <c r="A20" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="1" t="s">
-        <v>20</v>
+      <c r="A21" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="1" t="s">
-        <v>21</v>
+      <c r="A22" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="1" t="s">
-        <v>22</v>
+      <c r="A23" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="1" t="s">
-        <v>23</v>
+      <c r="A24" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="1" t="s">
-        <v>24</v>
+      <c r="A25" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="1" t="s">
-        <v>25</v>
+      <c r="A26" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="1" t="s">
-        <v>26</v>
+      <c r="A27" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="1" t="s">
-        <v>27</v>
+      <c r="A28" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="1" t="s">
-        <v>28</v>
+      <c r="A29" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="1" t="s">
-        <v>29</v>
+      <c r="A30" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="1" t="s">
-        <v>30</v>
+      <c r="A31" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="1" t="s">
-        <v>31</v>
+      <c r="A32" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="1" t="s">
-        <v>32</v>
+      <c r="A33" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="1" t="s">
-        <v>33</v>
+      <c r="A34" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="1" t="s">
-        <v>34</v>
+      <c r="A35" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="1" t="s">
-        <v>35</v>
+      <c r="A36" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="1" t="s">
-        <v>36</v>
+      <c r="A37" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="1" t="s">
-        <v>37</v>
+      <c r="A38" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="1" t="s">
-        <v>38</v>
+      <c r="A39" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1">
-      <c r="A73" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1">
-      <c r="A74" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1">
-      <c r="A75" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1">
-      <c r="A76" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1">
-      <c r="A77" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1">
-      <c r="A78" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1">
-      <c r="A79" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1">
-      <c r="A80" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1">
-      <c r="A81" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1">
-      <c r="A82" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1">
-      <c r="A83" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1">
-      <c r="A84" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1">
-      <c r="A85" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1">
-      <c r="A86" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1">
-      <c r="A87" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1">
-      <c r="A88" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1">
-      <c r="A89" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1">
-      <c r="A90" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1">
-      <c r="A91" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1">
-      <c r="A92" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1">
-      <c r="A93" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1">
-      <c r="A94" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1">
-      <c r="A95" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1">
-      <c r="A96" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1">
-      <c r="A97" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1">
-      <c r="A98" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1">
-      <c r="A99" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1">
-      <c r="A100" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1">
-      <c r="A101" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1">
-      <c r="A102" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1">
-      <c r="A103" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1">
-      <c r="A104" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1">
-      <c r="A105" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1">
-      <c r="A106" s="1" t="s">
-        <v>105</v>
+      <c r="A40" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/SDP/Filexel/data.xlsx
+++ b/SDP/Filexel/data.xlsx
@@ -5,18 +5,20 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowHeight="16760" activeTab="1"/>
+    <workbookView windowHeight="16760" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="listWbpRutan1Bandung" sheetId="1" r:id="rId1"/>
     <sheet name="ListPetugasRutan1Bandung" sheetId="2" r:id="rId2"/>
+    <sheet name="listWbpSumedang" sheetId="3" r:id="rId3"/>
+    <sheet name="Negara" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="923">
   <si>
     <t>ISMAIL KURNIAWAn BIN zulahmad</t>
   </si>
@@ -454,6 +456,2337 @@
   </si>
   <si>
     <t>Tira Purwanti</t>
+  </si>
+  <si>
+    <t>RIKI ARJIANTO RG</t>
+  </si>
+  <si>
+    <t>RIZKI ARDIANSYAH</t>
+  </si>
+  <si>
+    <t>LR M. ADHI PUTRA PRATAMA</t>
+  </si>
+  <si>
+    <t>LR RAMDAN ZAEN MAULANA</t>
+  </si>
+  <si>
+    <t>ABDUL GHANA</t>
+  </si>
+  <si>
+    <t>VIRGIANDRA</t>
+  </si>
+  <si>
+    <t>MAIZA</t>
+  </si>
+  <si>
+    <t>RAKEYYAN</t>
+  </si>
+  <si>
+    <t>KEYAN</t>
+  </si>
+  <si>
+    <t>SEKAR</t>
+  </si>
+  <si>
+    <t>IKHSAN KAMIL</t>
+  </si>
+  <si>
+    <t>DZULYAA</t>
+  </si>
+  <si>
+    <t>ASEP RISNANDAR</t>
+  </si>
+  <si>
+    <t>AYU LESTARI</t>
+  </si>
+  <si>
+    <t>FAJAR HERMANSYAH</t>
+  </si>
+  <si>
+    <t>SOPIAN</t>
+  </si>
+  <si>
+    <t>ONEAL LUTHFIANDER PERMANA</t>
+  </si>
+  <si>
+    <t>KHAERUNISSA AZZAHRA</t>
+  </si>
+  <si>
+    <t>RIAN KUSTRIANA</t>
+  </si>
+  <si>
+    <t>TASYA FARASYA</t>
+  </si>
+  <si>
+    <t>ASRUL NOVIAN</t>
+  </si>
+  <si>
+    <t>PRISADIANI</t>
+  </si>
+  <si>
+    <t>LUNA LOVEGOOD</t>
+  </si>
+  <si>
+    <t>HARMONIE</t>
+  </si>
+  <si>
+    <t>LIZA NURHALIZA</t>
+  </si>
+  <si>
+    <t>MUHAMMAD ROZIN AMARULLAH</t>
+  </si>
+  <si>
+    <t>MOCHAMMAD DAFFA DZAKI</t>
+  </si>
+  <si>
+    <t>ULY AZKA FAUZIAH</t>
+  </si>
+  <si>
+    <t>RON WEASLEY</t>
+  </si>
+  <si>
+    <t>RAHMI ROZA</t>
+  </si>
+  <si>
+    <t>AJENG KARTINI</t>
+  </si>
+  <si>
+    <t>AJENG DASWATI</t>
+  </si>
+  <si>
+    <t>WILLY WONKA</t>
+  </si>
+  <si>
+    <t>IPMAM MULAPA</t>
+  </si>
+  <si>
+    <t>HINAYA SHOYOU</t>
+  </si>
+  <si>
+    <t>CHOI HYUNSUK</t>
+  </si>
+  <si>
+    <t>PARK JIHOON</t>
+  </si>
+  <si>
+    <t>KANEMOTO YOSHINORI</t>
+  </si>
+  <si>
+    <t>KIM JUNKYU</t>
+  </si>
+  <si>
+    <t>TAKATA MASHIHO</t>
+  </si>
+  <si>
+    <t>YOON JAEHYUK</t>
+  </si>
+  <si>
+    <t>LR MOCHAMAD ANWAR FAUZI</t>
+  </si>
+  <si>
+    <t>WILDAN FATUROHMAN</t>
+  </si>
+  <si>
+    <t>TRI JOKO SUSILO</t>
+  </si>
+  <si>
+    <t>HERUSURYA</t>
+  </si>
+  <si>
+    <t>NURARKAMIA</t>
+  </si>
+  <si>
+    <t>FARID ARIANTO</t>
+  </si>
+  <si>
+    <t>LR DINDA AYU</t>
+  </si>
+  <si>
+    <t>LR TEDUH SANUBAR</t>
+  </si>
+  <si>
+    <t>LR PRILY NURHIDAYAH</t>
+  </si>
+  <si>
+    <t>LR AJIZ TRUGUN</t>
+  </si>
+  <si>
+    <t>LR NURGIVANI</t>
+  </si>
+  <si>
+    <t>LR RYOGA SAKTI</t>
+  </si>
+  <si>
+    <t>LR LALITA CHANDIANI</t>
+  </si>
+  <si>
+    <t>LR MANARI</t>
+  </si>
+  <si>
+    <t>KIRANA LARASATI</t>
+  </si>
+  <si>
+    <t>LR SULPADIANTI</t>
+  </si>
+  <si>
+    <t>LR ALWAN INWARSYAH</t>
+  </si>
+  <si>
+    <t>LR CAHYANI</t>
+  </si>
+  <si>
+    <t>LR SETTA PERMATA</t>
+  </si>
+  <si>
+    <t>LR EMA AINUN NOVI</t>
+  </si>
+  <si>
+    <t>LR FARHAN ARIANTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LR FADILA N </t>
+  </si>
+  <si>
+    <t>AZWARd BIN sugiono</t>
+  </si>
+  <si>
+    <t>LR PUJI LESTARI</t>
+  </si>
+  <si>
+    <t>LR MAULANA PRIBADI</t>
+  </si>
+  <si>
+    <t>LR DESI RATNA</t>
+  </si>
+  <si>
+    <t>RIKSA ALMUNAWAR</t>
+  </si>
+  <si>
+    <t>YOLANDARI</t>
+  </si>
+  <si>
+    <t>DEWI PUTRI</t>
+  </si>
+  <si>
+    <t>IHSAN NUR IHSAN</t>
+  </si>
+  <si>
+    <t>SURIANTONO</t>
+  </si>
+  <si>
+    <t>NASYAFIRA</t>
+  </si>
+  <si>
+    <t>REYHANUL AKBAR</t>
+  </si>
+  <si>
+    <t>SEANORSLEAY RAGILANG PERWIRA</t>
+  </si>
+  <si>
+    <t>FARIDZ PASMA PUTRA</t>
+  </si>
+  <si>
+    <t>ROYAN KRISTIANUS</t>
+  </si>
+  <si>
+    <t>ROBBY SUDRAJAT</t>
+  </si>
+  <si>
+    <t>M.FAHMI</t>
+  </si>
+  <si>
+    <t>ILHAM MUDZAKIR</t>
+  </si>
+  <si>
+    <t>DZULFIKAR MUZAKIR</t>
+  </si>
+  <si>
+    <t>HAMADA ASAHI</t>
+  </si>
+  <si>
+    <t>ARISIL</t>
+  </si>
+  <si>
+    <t>BANG YEDAM</t>
+  </si>
+  <si>
+    <t>MUHAMMAD RIZKI HENDRAWAN</t>
+  </si>
+  <si>
+    <t>KIM DOYOUNG</t>
+  </si>
+  <si>
+    <t>PARK JEONGWOO</t>
+  </si>
+  <si>
+    <t>WATANABE HARUTO</t>
+  </si>
+  <si>
+    <t>SRI HANDAYANI</t>
+  </si>
+  <si>
+    <t>DEDEN SETIAWAN</t>
+  </si>
+  <si>
+    <t>GALIH BIN -</t>
+  </si>
+  <si>
+    <t>NURALVI SANIA BINTI suparno</t>
+  </si>
+  <si>
+    <t>DIVA ASYARY  BIN halim</t>
+  </si>
+  <si>
+    <t>M DZAKY AMIRHAMZAH</t>
+  </si>
+  <si>
+    <t>NALENDRA</t>
+  </si>
+  <si>
+    <t>DINDA SITI FAUZIAN</t>
+  </si>
+  <si>
+    <t>RIZKY FAHREZA</t>
+  </si>
+  <si>
+    <t>RAKA GUMELAR</t>
+  </si>
+  <si>
+    <t>NADIA</t>
+  </si>
+  <si>
+    <t>AVYRA MARITZA BINTI cecep</t>
+  </si>
+  <si>
+    <t>ZIANARDY PUTRI BINTI harianto</t>
+  </si>
+  <si>
+    <t>RIZKY PERMANA BIN SUMARNO</t>
+  </si>
+  <si>
+    <t>SO JUNGHWAN</t>
+  </si>
+  <si>
+    <t>MAULANA SIDIK ZAKARYA BIN Sumargo</t>
+  </si>
+  <si>
+    <t>DAHLIA</t>
+  </si>
+  <si>
+    <t>RIZKI SAPUTRA BIN Sumanto</t>
+  </si>
+  <si>
+    <t>DHIPO GUMANTI BIN ASAD</t>
+  </si>
+  <si>
+    <t>ADAM RIZKI BIN Sumargo</t>
+  </si>
+  <si>
+    <t>HATIJAH KILWOW BINTI Sulanjana</t>
+  </si>
+  <si>
+    <t>ERIKA WULAN BINTI RIVANSYAH</t>
+  </si>
+  <si>
+    <t>GISSA NURHALISA BINTI DEDEN</t>
+  </si>
+  <si>
+    <t>NOVITA NURFIANTI BINTI DIDIN</t>
+  </si>
+  <si>
+    <t>CHWE VERNON BIN simon choi</t>
+  </si>
+  <si>
+    <t>HAMDAN BIN Sumardi</t>
+  </si>
+  <si>
+    <t>AULIAFITRA BIN AKBAR</t>
+  </si>
+  <si>
+    <t>ISA'AD NAUFAL BIN Galang rambu</t>
+  </si>
+  <si>
+    <t>RIZQA ATIKA BINTI JAJANG</t>
+  </si>
+  <si>
+    <t>DIAH UTARI PULUNGAN BINTI Pulunggan</t>
+  </si>
+  <si>
+    <t>SITI BULKIS BINTI Oktora</t>
+  </si>
+  <si>
+    <t>FIKRI NUR HAKIM BIN ASEP</t>
+  </si>
+  <si>
+    <t>ILHAM SATRIA BIN Satria</t>
+  </si>
+  <si>
+    <t>AIDI MUKTARILAH BIN Edi</t>
+  </si>
+  <si>
+    <t>ALAM BIN IYUS</t>
+  </si>
+  <si>
+    <t>RIVANSYAH BIN REDI</t>
+  </si>
+  <si>
+    <t>RENDI FARCHAN BIN YAYAT</t>
+  </si>
+  <si>
+    <t>CANDRA CALORA BIN wahyu</t>
+  </si>
+  <si>
+    <t>ILHAM HILMI BIN Samsul</t>
+  </si>
+  <si>
+    <t>RATU RAHMA GUMILAR BIN LOUIS</t>
+  </si>
+  <si>
+    <t>ATIKA SAHIFUDIN BINTI AHMAD</t>
+  </si>
+  <si>
+    <t>HILMANSYAH BIN AHMAD</t>
+  </si>
+  <si>
+    <t>ANDRI WIGUNA BIN PUTRA</t>
+  </si>
+  <si>
+    <t>RIAN ELGANTARA BIN RIVAN</t>
+  </si>
+  <si>
+    <t>EDO SETIAWAN BIN SETIAWAN</t>
+  </si>
+  <si>
+    <t>TIARA DWI LESTARI BINTI LING LING</t>
+  </si>
+  <si>
+    <t>ASEP SOLEHUDIN BIN AHMAD</t>
+  </si>
+  <si>
+    <t>ELSA FEBRIANTI BINTI AYI SUHARI</t>
+  </si>
+  <si>
+    <t>JIHYO PARK</t>
+  </si>
+  <si>
+    <t>WULAN SUCI</t>
+  </si>
+  <si>
+    <t>NISA PUTRI IRMAWATI</t>
+  </si>
+  <si>
+    <t>WINI UDIYATI BINTI Rozak</t>
+  </si>
+  <si>
+    <t>RIZKI KURNIA BIN BEN</t>
+  </si>
+  <si>
+    <t>ESMERALDA BINTI BADANG</t>
+  </si>
+  <si>
+    <t>REINAKA PUTRI BINTI ARMAN</t>
+  </si>
+  <si>
+    <t>RIHANa BINTI AOEL</t>
+  </si>
+  <si>
+    <t>HILMI HABIBUROHMAN</t>
+  </si>
+  <si>
+    <t>RIZKI FADILAH</t>
+  </si>
+  <si>
+    <t>MAKMUR BIN JAJAN</t>
+  </si>
+  <si>
+    <t>SHIFA AZAHRA</t>
+  </si>
+  <si>
+    <t>PUTRA PERBAWA BIN ALUCARD</t>
+  </si>
+  <si>
+    <t>IRFAN SURAS</t>
+  </si>
+  <si>
+    <t>NARMAN BIN KIJAN</t>
+  </si>
+  <si>
+    <t>AYU RAHMAWATI</t>
+  </si>
+  <si>
+    <t>GELAHIM BIN KIJAN</t>
+  </si>
+  <si>
+    <t>TEGAR UMAMI BIN epul</t>
+  </si>
+  <si>
+    <t>HERMAWANDANI BIN KIJAN</t>
+  </si>
+  <si>
+    <t>ANISA BINTI eem</t>
+  </si>
+  <si>
+    <t>ILHAM SATRIA LUTHFI BIN IRHAMSYAH</t>
+  </si>
+  <si>
+    <t>IRVAN HERLIANA BIN yaya</t>
+  </si>
+  <si>
+    <t>KOKORO BIN KIJAN</t>
+  </si>
+  <si>
+    <t>GUNAWANTO BIN KIJAN</t>
+  </si>
+  <si>
+    <t>LUKMAN HARDI BIN TAPAL</t>
+  </si>
+  <si>
+    <t>RAYANDRA REYHAN BIN SETYA</t>
+  </si>
+  <si>
+    <t>FIKRI MUJADDID BIN SUTARTO</t>
+  </si>
+  <si>
+    <t>DODI SUDRAJAT BIN PURWANTO</t>
+  </si>
+  <si>
+    <t>RIMBA DIRGANTARA BINTI AAN SUDRAJAT</t>
+  </si>
+  <si>
+    <t>SARI BIN KIJAN</t>
+  </si>
+  <si>
+    <t>DIANI RIZKI BINTI ASEP</t>
+  </si>
+  <si>
+    <t>AYU PUTRI DILA BIN KIJAN</t>
+  </si>
+  <si>
+    <t>NURMANTO BIN KIJAN</t>
+  </si>
+  <si>
+    <t>DENI HIDAYAT BIN EPI</t>
+  </si>
+  <si>
+    <t>GUSTIANTO BIN KIJAN</t>
+  </si>
+  <si>
+    <t>LATIFAH BINTI IRMAN</t>
+  </si>
+  <si>
+    <t>DIANA ANASTA BINTI DAYAT</t>
+  </si>
+  <si>
+    <t>JABAR AL THARIQ BIN JAJAT</t>
+  </si>
+  <si>
+    <t>INDRA HENDAYA GEMILANG BIN HERMAN</t>
+  </si>
+  <si>
+    <t>RUDI TABUTI BIN KIJAN</t>
+  </si>
+  <si>
+    <t>Kanada</t>
+  </si>
+  <si>
+    <t>Tapanuli selatan</t>
+  </si>
+  <si>
+    <t>Amerika Serikat</t>
+  </si>
+  <si>
+    <t>Tapanuli Utara</t>
+  </si>
+  <si>
+    <t>Kota1</t>
+  </si>
+  <si>
+    <t>Mesir</t>
+  </si>
+  <si>
+    <t>Toba Samosir</t>
+  </si>
+  <si>
+    <t>Kota2</t>
+  </si>
+  <si>
+    <t>Maroko</t>
+  </si>
+  <si>
+    <t>Labuhan Batu</t>
+  </si>
+  <si>
+    <t>Kota3</t>
+  </si>
+  <si>
+    <t>Algeria</t>
+  </si>
+  <si>
+    <t>Asahan</t>
+  </si>
+  <si>
+    <t>Kota4</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t>Simalungun</t>
+  </si>
+  <si>
+    <t>Kota5</t>
+  </si>
+  <si>
+    <t>Libya</t>
+  </si>
+  <si>
+    <t>Dairi</t>
+  </si>
+  <si>
+    <t>Kota6</t>
+  </si>
+  <si>
+    <t>Gambia</t>
+  </si>
+  <si>
+    <t>Karo</t>
+  </si>
+  <si>
+    <t>Kota7</t>
+  </si>
+  <si>
+    <t>Republik Senegal</t>
+  </si>
+  <si>
+    <t>Deli Serdang</t>
+  </si>
+  <si>
+    <t>Kota8</t>
+  </si>
+  <si>
+    <t>Mauritania</t>
+  </si>
+  <si>
+    <t>Nias Selatan</t>
+  </si>
+  <si>
+    <t>Kota9</t>
+  </si>
+  <si>
+    <t>Mali Republik</t>
+  </si>
+  <si>
+    <t>Humbang Hasundutan</t>
+  </si>
+  <si>
+    <t>Kota10</t>
+  </si>
+  <si>
+    <t>Guinea, Rep</t>
+  </si>
+  <si>
+    <t>Papak Bharat</t>
+  </si>
+  <si>
+    <t>Kota11</t>
+  </si>
+  <si>
+    <t>Pantai Gading</t>
+  </si>
+  <si>
+    <t>Samosir</t>
+  </si>
+  <si>
+    <t>Kota12</t>
+  </si>
+  <si>
+    <t>Burkina Faso</t>
+  </si>
+  <si>
+    <t>Serdang Bedagai</t>
+  </si>
+  <si>
+    <t>Kota13</t>
+  </si>
+  <si>
+    <t>Republik Niger</t>
+  </si>
+  <si>
+    <t>Sibolga</t>
+  </si>
+  <si>
+    <t>Kota14</t>
+  </si>
+  <si>
+    <t>Togo</t>
+  </si>
+  <si>
+    <t>Tanjung Balai</t>
+  </si>
+  <si>
+    <t>Kota15</t>
+  </si>
+  <si>
+    <t>Benin, Republik</t>
+  </si>
+  <si>
+    <t>Pematang Siantar</t>
+  </si>
+  <si>
+    <t>Kota16</t>
+  </si>
+  <si>
+    <t>Mauritius</t>
+  </si>
+  <si>
+    <t>Tebing Tinggi</t>
+  </si>
+  <si>
+    <t>Kota17</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>Medan</t>
+  </si>
+  <si>
+    <t>Kota18</t>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+  </si>
+  <si>
+    <t>Padang Sidempuan</t>
+  </si>
+  <si>
+    <t>Kota19</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>Kepulauan Mentawai</t>
+  </si>
+  <si>
+    <t>Kota20</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Pesisir Selatan</t>
+  </si>
+  <si>
+    <t>Kota21</t>
+  </si>
+  <si>
+    <t>Chad Republik</t>
+  </si>
+  <si>
+    <t>Solok</t>
+  </si>
+  <si>
+    <t>Kota22</t>
+  </si>
+  <si>
+    <t>Central African Rep</t>
+  </si>
+  <si>
+    <t>Sawahlunto/sijunjung</t>
+  </si>
+  <si>
+    <t>Kota23</t>
+  </si>
+  <si>
+    <t>Kamerun</t>
+  </si>
+  <si>
+    <t>Tanah Datar</t>
+  </si>
+  <si>
+    <t>Kota24</t>
+  </si>
+  <si>
+    <t>Cape Verde Islands</t>
+  </si>
+  <si>
+    <t>Padang Pariaman</t>
+  </si>
+  <si>
+    <t>Kota25</t>
+  </si>
+  <si>
+    <t>Principe</t>
+  </si>
+  <si>
+    <t>Agam</t>
+  </si>
+  <si>
+    <t>Kota26</t>
+  </si>
+  <si>
+    <t>Guinea Khatulistiwa</t>
+  </si>
+  <si>
+    <t>Lima Puluh Koto</t>
+  </si>
+  <si>
+    <t>Kota27</t>
+  </si>
+  <si>
+    <t>Republik Gabon</t>
+  </si>
+  <si>
+    <t>Pasaman</t>
+  </si>
+  <si>
+    <t>Kota28</t>
+  </si>
+  <si>
+    <t>Bahamas</t>
+  </si>
+  <si>
+    <t>Solok Selatan</t>
+  </si>
+  <si>
+    <t>Kota29</t>
+  </si>
+  <si>
+    <t>Zaire</t>
+  </si>
+  <si>
+    <t>Dharmasraya</t>
+  </si>
+  <si>
+    <t>Kota30</t>
+  </si>
+  <si>
+    <t>Angola</t>
+  </si>
+  <si>
+    <t>Pasaman barat</t>
+  </si>
+  <si>
+    <t>Kota31</t>
+  </si>
+  <si>
+    <t>Guinea, Bissau</t>
+  </si>
+  <si>
+    <t>Padang</t>
+  </si>
+  <si>
+    <t>Kota32</t>
+  </si>
+  <si>
+    <t>Barbados</t>
+  </si>
+  <si>
+    <t>Sawah lunto</t>
+  </si>
+  <si>
+    <t>Kota33</t>
+  </si>
+  <si>
+    <t>Ascension</t>
+  </si>
+  <si>
+    <t>Padang panjang</t>
+  </si>
+  <si>
+    <t>Kota34</t>
+  </si>
+  <si>
+    <t>Seychelles</t>
+  </si>
+  <si>
+    <t>Bukit tinggi</t>
+  </si>
+  <si>
+    <t>Kota35</t>
+  </si>
+  <si>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t>Payak Kumbuh</t>
+  </si>
+  <si>
+    <t>Kota36</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>Pariaman</t>
+  </si>
+  <si>
+    <t>Kota37</t>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+  </si>
+  <si>
+    <t>Bengkulu selatan</t>
+  </si>
+  <si>
+    <t>Kota38</t>
+  </si>
+  <si>
+    <t>Republik Somalia</t>
+  </si>
+  <si>
+    <t>Rejang lebong</t>
+  </si>
+  <si>
+    <t>Kota39</t>
+  </si>
+  <si>
+    <t>Djibouti</t>
+  </si>
+  <si>
+    <t>Bengkulu utara</t>
+  </si>
+  <si>
+    <t>Kota40</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>Kaur</t>
+  </si>
+  <si>
+    <t>Kota41</t>
+  </si>
+  <si>
+    <t>Tanzania</t>
+  </si>
+  <si>
+    <t>Seluma</t>
+  </si>
+  <si>
+    <t>Kota42</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>Mukomuko</t>
+  </si>
+  <si>
+    <t>Kota43</t>
+  </si>
+  <si>
+    <t>Burundi</t>
+  </si>
+  <si>
+    <t>Lebong</t>
+  </si>
+  <si>
+    <t>Kota44</t>
+  </si>
+  <si>
+    <t>Mozambik</t>
+  </si>
+  <si>
+    <t>Kepahing</t>
+  </si>
+  <si>
+    <t>Kota45</t>
+  </si>
+  <si>
+    <t>Zanzibar</t>
+  </si>
+  <si>
+    <t>Bengkulu</t>
+  </si>
+  <si>
+    <t>Kota46</t>
+  </si>
+  <si>
+    <t>Zambia</t>
+  </si>
+  <si>
+    <t>Kuantan Singingi</t>
+  </si>
+  <si>
+    <t>Kota47</t>
+  </si>
+  <si>
+    <t>Madagaskar</t>
+  </si>
+  <si>
+    <t>Indragiri Hulu</t>
+  </si>
+  <si>
+    <t>Kota48</t>
+  </si>
+  <si>
+    <t>Reunion Island</t>
+  </si>
+  <si>
+    <t>Indragiri Hilir</t>
+  </si>
+  <si>
+    <t>Kota49</t>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t>Pelalawan</t>
+  </si>
+  <si>
+    <t>Kota50</t>
+  </si>
+  <si>
+    <t>Anguilla</t>
+  </si>
+  <si>
+    <t>Siak</t>
+  </si>
+  <si>
+    <t>Kota51</t>
+  </si>
+  <si>
+    <t>Malawi</t>
+  </si>
+  <si>
+    <t>Kampar</t>
+  </si>
+  <si>
+    <t>Kota52</t>
+  </si>
+  <si>
+    <t>Lesotho</t>
+  </si>
+  <si>
+    <t>Rokan Hulu</t>
+  </si>
+  <si>
+    <t>Kota53</t>
+  </si>
+  <si>
+    <t>Botswana</t>
+  </si>
+  <si>
+    <t>Bengkalis</t>
+  </si>
+  <si>
+    <t>Kota54</t>
+  </si>
+  <si>
+    <t>Antigua dan Barbuda</t>
+  </si>
+  <si>
+    <t>Rokan Hilir</t>
+  </si>
+  <si>
+    <t>Kota55</t>
+  </si>
+  <si>
+    <t>Komoro</t>
+  </si>
+  <si>
+    <t>Pekan Baru</t>
+  </si>
+  <si>
+    <t>Kota56</t>
+  </si>
+  <si>
+    <t>Afrika Selatan</t>
+  </si>
+  <si>
+    <t>Dumai</t>
+  </si>
+  <si>
+    <t>Kota57</t>
+  </si>
+  <si>
+    <t>Kepulauan Virgin Ing</t>
+  </si>
+  <si>
+    <t>Karimun</t>
+  </si>
+  <si>
+    <t>Kota58</t>
+  </si>
+  <si>
+    <t>St Helena</t>
+  </si>
+  <si>
+    <t>Kepulauan Riau</t>
+  </si>
+  <si>
+    <t>Kota59</t>
+  </si>
+  <si>
+    <t>Eritrea</t>
+  </si>
+  <si>
+    <t>Natuna</t>
+  </si>
+  <si>
+    <t>Kota60</t>
+  </si>
+  <si>
+    <t>Aruba</t>
+  </si>
+  <si>
+    <t>Lingga</t>
+  </si>
+  <si>
+    <t>Kota61</t>
+  </si>
+  <si>
+    <t>Kepulauan Faroe</t>
+  </si>
+  <si>
+    <t>Batam</t>
+  </si>
+  <si>
+    <t>Kota62</t>
+  </si>
+  <si>
+    <t>Greenland</t>
+  </si>
+  <si>
+    <t>Tanjung Pinang</t>
+  </si>
+  <si>
+    <t>Kota63</t>
+  </si>
+  <si>
+    <t>Irlandia</t>
+  </si>
+  <si>
+    <t>Kerinci</t>
+  </si>
+  <si>
+    <t>Kota64</t>
+  </si>
+  <si>
+    <t>Yunani</t>
+  </si>
+  <si>
+    <t>Merangin</t>
+  </si>
+  <si>
+    <t>Kota65</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Sarolangun</t>
+  </si>
+  <si>
+    <t>Kota66</t>
+  </si>
+  <si>
+    <t>Belgia</t>
+  </si>
+  <si>
+    <t>Batanghari</t>
+  </si>
+  <si>
+    <t>Kota67</t>
+  </si>
+  <si>
+    <t>Perancis</t>
+  </si>
+  <si>
+    <t>Muaro Jambi</t>
+  </si>
+  <si>
+    <t>Kota68</t>
+  </si>
+  <si>
+    <t>Spanyol</t>
+  </si>
+  <si>
+    <t>Tanjung Jabung Timur</t>
+  </si>
+  <si>
+    <t>Kota69</t>
+  </si>
+  <si>
+    <t>Kepualauan Virgin</t>
+  </si>
+  <si>
+    <t>Tanjung Jabung Barat</t>
+  </si>
+  <si>
+    <t>Kota70</t>
+  </si>
+  <si>
+    <t>Kepulauan Kayman</t>
+  </si>
+  <si>
+    <t>Tebo</t>
+  </si>
+  <si>
+    <t>Kota71</t>
+  </si>
+  <si>
+    <t>Gibraltar</t>
+  </si>
+  <si>
+    <t>Bungo</t>
+  </si>
+  <si>
+    <t>Kota72</t>
+  </si>
+  <si>
+    <t>Portugis</t>
+  </si>
+  <si>
+    <t>Jambi</t>
+  </si>
+  <si>
+    <t>Kota73</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>Oku</t>
+  </si>
+  <si>
+    <t>Kota74</t>
+  </si>
+  <si>
+    <t>Island</t>
+  </si>
+  <si>
+    <t>Oki</t>
+  </si>
+  <si>
+    <t>Kota75</t>
+  </si>
+  <si>
+    <t>Albania</t>
+  </si>
+  <si>
+    <t>Muara Enim</t>
+  </si>
+  <si>
+    <t>Kota76</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>Lahat</t>
+  </si>
+  <si>
+    <t>Kota77</t>
+  </si>
+  <si>
+    <t>Siprus</t>
+  </si>
+  <si>
+    <t>Musi Rawas</t>
+  </si>
+  <si>
+    <t>Kota78</t>
+  </si>
+  <si>
+    <t>Finlandia</t>
+  </si>
+  <si>
+    <t>Musi Banyu Asin</t>
+  </si>
+  <si>
+    <t>Kota79</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>Banyu Asin</t>
+  </si>
+  <si>
+    <t>Kota80</t>
+  </si>
+  <si>
+    <t>Hungaria</t>
+  </si>
+  <si>
+    <t>Oku Selatan</t>
+  </si>
+  <si>
+    <t>Kota81</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>Oku Timur</t>
+  </si>
+  <si>
+    <t>Kota82</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>Ogan Ilir</t>
+  </si>
+  <si>
+    <t>Kota83</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>Palembang</t>
+  </si>
+  <si>
+    <t>Kota84</t>
+  </si>
+  <si>
+    <t>Moldova</t>
+  </si>
+  <si>
+    <t>Prabumulih</t>
+  </si>
+  <si>
+    <t>Kota85</t>
+  </si>
+  <si>
+    <t>Armenia</t>
+  </si>
+  <si>
+    <t>Pagar Alam</t>
+  </si>
+  <si>
+    <t>Kota86</t>
+  </si>
+  <si>
+    <t>Belarusia</t>
+  </si>
+  <si>
+    <t>Lubuk Linggau</t>
+  </si>
+  <si>
+    <t>Kota87</t>
+  </si>
+  <si>
+    <t>Andor</t>
+  </si>
+  <si>
+    <t>Lampung Barat</t>
+  </si>
+  <si>
+    <t>Kota88</t>
+  </si>
+  <si>
+    <t>Monako</t>
+  </si>
+  <si>
+    <t>Tanggamus</t>
+  </si>
+  <si>
+    <t>Kota89</t>
+  </si>
+  <si>
+    <t>San Marino</t>
+  </si>
+  <si>
+    <t>Lampung Selatan</t>
+  </si>
+  <si>
+    <t>Kota90</t>
+  </si>
+  <si>
+    <t>Ukraina</t>
+  </si>
+  <si>
+    <t>Lampung Timur</t>
+  </si>
+  <si>
+    <t>Kota91</t>
+  </si>
+  <si>
+    <t>Kosovo</t>
+  </si>
+  <si>
+    <t>Lampung Tengah</t>
+  </si>
+  <si>
+    <t>Kota92</t>
+  </si>
+  <si>
+    <t>Kroasia</t>
+  </si>
+  <si>
+    <t>Lampung Utara</t>
+  </si>
+  <si>
+    <t>Kota93</t>
+  </si>
+  <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
+    <t>Way Kanan</t>
+  </si>
+  <si>
+    <t>Kota94</t>
+  </si>
+  <si>
+    <t>Bosnia dan Herzegovi</t>
+  </si>
+  <si>
+    <t>Tulang Bawang</t>
+  </si>
+  <si>
+    <t>Kota95</t>
+  </si>
+  <si>
+    <t>Macedonia, FYROM</t>
+  </si>
+  <si>
+    <t>Bandar Lampung</t>
+  </si>
+  <si>
+    <t>Kota96</t>
+  </si>
+  <si>
+    <t>Italia</t>
+  </si>
+  <si>
+    <t>Metro</t>
+  </si>
+  <si>
+    <t>Kota97</t>
+  </si>
+  <si>
+    <t>Kota Vatikan</t>
+  </si>
+  <si>
+    <t>Bangka</t>
+  </si>
+  <si>
+    <t>Kota98</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Belitung</t>
+  </si>
+  <si>
+    <t>Kota99</t>
+  </si>
+  <si>
+    <t>Swiss</t>
+  </si>
+  <si>
+    <t>Bangka Barat</t>
+  </si>
+  <si>
+    <t>Kota100</t>
+  </si>
+  <si>
+    <t>Republik Ceko</t>
+  </si>
+  <si>
+    <t>Bangka Tengah</t>
+  </si>
+  <si>
+    <t>Kota101</t>
+  </si>
+  <si>
+    <t>Slowakia</t>
+  </si>
+  <si>
+    <t>Bangka Selatan</t>
+  </si>
+  <si>
+    <t>Kota102</t>
+  </si>
+  <si>
+    <t>Liechtenstein</t>
+  </si>
+  <si>
+    <t>Belitung Timur</t>
+  </si>
+  <si>
+    <t>Kota103</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Pangkal Pinang</t>
+  </si>
+  <si>
+    <t>Kota104</t>
+  </si>
+  <si>
+    <t>Isle of Man</t>
+  </si>
+  <si>
+    <t>Kepulauan Seribu</t>
+  </si>
+  <si>
+    <t>Kota105</t>
+  </si>
+  <si>
+    <t>Kerajaan Inggris</t>
+  </si>
+  <si>
+    <t>Jakarta Selatan</t>
+  </si>
+  <si>
+    <t>Kota106</t>
+  </si>
+  <si>
+    <t>Bermuda</t>
+  </si>
+  <si>
+    <t>Jakarta Timur</t>
+  </si>
+  <si>
+    <t>Kota107</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Jakarta Pusat</t>
+  </si>
+  <si>
+    <t>Kota108</t>
+  </si>
+  <si>
+    <t>Swedia</t>
+  </si>
+  <si>
+    <t>Jakarta Barat</t>
+  </si>
+  <si>
+    <t>Kota109</t>
+  </si>
+  <si>
+    <t>Grenada dan Carriacu</t>
+  </si>
+  <si>
+    <t>Jakarta Utara</t>
+  </si>
+  <si>
+    <t>Kota110</t>
+  </si>
+  <si>
+    <t>Norwegia</t>
+  </si>
+  <si>
+    <t>Bogor</t>
+  </si>
+  <si>
+    <t>Kota111</t>
+  </si>
+  <si>
+    <t>Polandia</t>
+  </si>
+  <si>
+    <t>Sukabumi</t>
+  </si>
+  <si>
+    <t>Kota112</t>
+  </si>
+  <si>
+    <t>Jerman</t>
+  </si>
+  <si>
+    <t>Cianjur</t>
+  </si>
+  <si>
+    <t>Kota113</t>
+  </si>
+  <si>
+    <t>Kepulauan Falkland</t>
+  </si>
+  <si>
+    <t>Bandung</t>
+  </si>
+  <si>
+    <t>Kota114</t>
+  </si>
+  <si>
+    <t>Belize</t>
+  </si>
+  <si>
+    <t>Garut</t>
+  </si>
+  <si>
+    <t>Kota115</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>Tasikmalaya</t>
+  </si>
+  <si>
+    <t>Kota116</t>
+  </si>
+  <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
+    <t>Ciamis</t>
+  </si>
+  <si>
+    <t>Kota117</t>
+  </si>
+  <si>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>Kuningan</t>
+  </si>
+  <si>
+    <t>Kota118</t>
+  </si>
+  <si>
+    <t>Nikaragua</t>
+  </si>
+  <si>
+    <t>Cirebon</t>
+  </si>
+  <si>
+    <t>Kota119</t>
+  </si>
+  <si>
+    <t>Kosta Rika</t>
+  </si>
+  <si>
+    <t>Majalengka</t>
+  </si>
+  <si>
+    <t>Kota120</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>Sumedang</t>
+  </si>
+  <si>
+    <t>Kota121</t>
+  </si>
+  <si>
+    <t>Miquelon</t>
+  </si>
+  <si>
+    <t>Indramayu</t>
+  </si>
+  <si>
+    <t>Kota122</t>
+  </si>
+  <si>
+    <t>Haiti</t>
+  </si>
+  <si>
+    <t>Subang</t>
+  </si>
+  <si>
+    <t>Kota123</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Purwakarta</t>
+  </si>
+  <si>
+    <t>Kota124</t>
+  </si>
+  <si>
+    <t>Meksiko</t>
+  </si>
+  <si>
+    <t>Karawang</t>
+  </si>
+  <si>
+    <t>Kota125</t>
+  </si>
+  <si>
+    <t>Kuba</t>
+  </si>
+  <si>
+    <t>Bekasi Timur</t>
+  </si>
+  <si>
+    <t>Kota126</t>
+  </si>
+  <si>
+    <t>Guantanamo Bay</t>
+  </si>
+  <si>
+    <t>Bekasi Barat</t>
+  </si>
+  <si>
+    <t>Kota127</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Depok</t>
+  </si>
+  <si>
+    <t>Kota128</t>
+  </si>
+  <si>
+    <t>Brasil</t>
+  </si>
+  <si>
+    <t>Cimahi</t>
+  </si>
+  <si>
+    <t>Kota129</t>
+  </si>
+  <si>
+    <t>Chili</t>
+  </si>
+  <si>
+    <t>Banjar-Jawa Barat</t>
+  </si>
+  <si>
+    <t>Kota130</t>
+  </si>
+  <si>
+    <t>Pulau Paskah</t>
+  </si>
+  <si>
+    <t>Pandeglang</t>
+  </si>
+  <si>
+    <t>Kota131</t>
+  </si>
+  <si>
+    <t>Venezuela</t>
+  </si>
+  <si>
+    <t>Lebak</t>
+  </si>
+  <si>
+    <t>Kota132</t>
+  </si>
+  <si>
+    <t>Guadeloupe</t>
+  </si>
+  <si>
+    <t>Tangerang</t>
+  </si>
+  <si>
+    <t>Kota133</t>
+  </si>
+  <si>
+    <t>Bolivia</t>
+  </si>
+  <si>
+    <t>Serang</t>
+  </si>
+  <si>
+    <t>Kota134</t>
+  </si>
+  <si>
+    <t>Guyana</t>
+  </si>
+  <si>
+    <t>Cilegon</t>
+  </si>
+  <si>
+    <t>Kota135</t>
+  </si>
+  <si>
+    <t>Ekuador</t>
+  </si>
+  <si>
+    <t>Cilacap</t>
+  </si>
+  <si>
+    <t>Kota136</t>
+  </si>
+  <si>
+    <t>Guyana Perancis</t>
+  </si>
+  <si>
+    <t>Banyumas</t>
+  </si>
+  <si>
+    <t>Kota137</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>Banjarnegara</t>
+  </si>
+  <si>
+    <t>Kota138</t>
+  </si>
+  <si>
+    <t>Perancis Antilles</t>
+  </si>
+  <si>
+    <t>Kebumen</t>
+  </si>
+  <si>
+    <t>Kota139</t>
+  </si>
+  <si>
+    <t>Suriname</t>
+  </si>
+  <si>
+    <t>Purworejo</t>
+  </si>
+  <si>
+    <t>Kota140</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>Wonosobo</t>
+  </si>
+  <si>
+    <t>Kota141</t>
+  </si>
+  <si>
+    <t>Curacao</t>
+  </si>
+  <si>
+    <t>Magelang</t>
+  </si>
+  <si>
+    <t>Kota142</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>Boyolali</t>
+  </si>
+  <si>
+    <t>Kota143</t>
+  </si>
+  <si>
+    <t>Pulau Christmas</t>
+  </si>
+  <si>
+    <t>Klaten</t>
+  </si>
+  <si>
+    <t>Kota144</t>
+  </si>
+  <si>
+    <t>Kepulauan Cocos</t>
+  </si>
+  <si>
+    <t>Sukoharjo</t>
+  </si>
+  <si>
+    <t>Kota145</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Wonogiri</t>
+  </si>
+  <si>
+    <t>Kota146</t>
+  </si>
+  <si>
+    <t>Filipina</t>
+  </si>
+  <si>
+    <t>Karanganyar</t>
+  </si>
+  <si>
+    <t>Kota147</t>
+  </si>
+  <si>
+    <t>Selandia Baru</t>
+  </si>
+  <si>
+    <t>Sragen</t>
+  </si>
+  <si>
+    <t>Kota148</t>
+  </si>
+  <si>
+    <t>Kepulauan Turks dan</t>
+  </si>
+  <si>
+    <t>Grobongan</t>
+  </si>
+  <si>
+    <t>Kota149</t>
+  </si>
+  <si>
+    <t>Singapura</t>
+  </si>
+  <si>
+    <t>Blora</t>
+  </si>
+  <si>
+    <t>Kota150</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>Rembang</t>
+  </si>
+  <si>
+    <t>Kota151</t>
+  </si>
+  <si>
+    <t>Montserrat</t>
+  </si>
+  <si>
+    <t>Pati</t>
+  </si>
+  <si>
+    <t>Kota152</t>
+  </si>
+  <si>
+    <t>Kepulauan Mariana</t>
+  </si>
+  <si>
+    <t>Kudus</t>
+  </si>
+  <si>
+    <t>Kota153</t>
+  </si>
+  <si>
+    <t>Guam</t>
+  </si>
+  <si>
+    <t>Jepara</t>
+  </si>
+  <si>
+    <t>Kota154</t>
+  </si>
+  <si>
+    <t>Antartika</t>
+  </si>
+  <si>
+    <t>Demak</t>
+  </si>
+  <si>
+    <t>Kota155</t>
+  </si>
+  <si>
+    <t>Brunei</t>
+  </si>
+  <si>
+    <t>Semarang</t>
+  </si>
+  <si>
+    <t>Kota156</t>
+  </si>
+  <si>
+    <t>Nauru</t>
+  </si>
+  <si>
+    <t>Temanggung</t>
+  </si>
+  <si>
+    <t>Kota157</t>
+  </si>
+  <si>
+    <t>Papua Nugini</t>
+  </si>
+  <si>
+    <t>Kendal</t>
+  </si>
+  <si>
+    <t>Kota158</t>
+  </si>
+  <si>
+    <t>Tonga</t>
+  </si>
+  <si>
+    <t>Batang</t>
+  </si>
+  <si>
+    <t>Kota159</t>
+  </si>
+  <si>
+    <t>Kepulauan Solomon</t>
+  </si>
+  <si>
+    <t>Pekalongan</t>
+  </si>
+  <si>
+    <t>Kota160</t>
+  </si>
+  <si>
+    <t>Vanuatu</t>
+  </si>
+  <si>
+    <t>Pemalang</t>
+  </si>
+  <si>
+    <t>Kota161</t>
+  </si>
+  <si>
+    <t>Fiji Islands</t>
+  </si>
+  <si>
+    <t>Tegal</t>
+  </si>
+  <si>
+    <t>Kota162</t>
+  </si>
+  <si>
+    <t>Palau</t>
+  </si>
+  <si>
+    <t>Brebes</t>
+  </si>
+  <si>
+    <t>Kota163</t>
+  </si>
+  <si>
+    <t>Wallis dan Futuna</t>
+  </si>
+  <si>
+    <t>Surakarta</t>
+  </si>
+  <si>
+    <t>Kota164</t>
+  </si>
+  <si>
+    <t>Kepulauan Cook</t>
+  </si>
+  <si>
+    <t>Salatiga</t>
+  </si>
+  <si>
+    <t>Kota165</t>
+  </si>
+  <si>
+    <t>Niue</t>
+  </si>
+  <si>
+    <t>Kulon Progo</t>
+  </si>
+  <si>
+    <t>Kota166</t>
+  </si>
+  <si>
+    <t>Samoa Amerika</t>
+  </si>
+  <si>
+    <t>Bantul</t>
+  </si>
+  <si>
+    <t>Kota167</t>
+  </si>
+  <si>
+    <t>Samoa Barat</t>
+  </si>
+  <si>
+    <t>Gunung Kidul</t>
+  </si>
+  <si>
+    <t>Kota168</t>
+  </si>
+  <si>
+    <t>Kiribati</t>
+  </si>
+  <si>
+    <t>Sleman</t>
+  </si>
+  <si>
+    <t>Kota169</t>
+  </si>
+  <si>
+    <t>Kaledonia Baru</t>
+  </si>
+  <si>
+    <t>Yogyakarta</t>
+  </si>
+  <si>
+    <t>Kota170</t>
+  </si>
+  <si>
+    <t>Tuvalu</t>
+  </si>
+  <si>
+    <t>Pacitan</t>
+  </si>
+  <si>
+    <t>Kota171</t>
+  </si>
+  <si>
+    <t>Polinesia Perancis</t>
+  </si>
+  <si>
+    <t>Ponorogo</t>
+  </si>
+  <si>
+    <t>Kota172</t>
+  </si>
+  <si>
+    <t>Tokelau</t>
+  </si>
+  <si>
+    <t>Trenggalek</t>
+  </si>
+  <si>
+    <t>Kota173</t>
+  </si>
+  <si>
+    <t>Mikronesia, Fed Seri</t>
+  </si>
+  <si>
+    <t>Tulungagung</t>
+  </si>
+  <si>
+    <t>Kota174</t>
+  </si>
+  <si>
+    <t>Kepulauan Marshall</t>
+  </si>
+  <si>
+    <t>Kab. blitar</t>
+  </si>
+  <si>
+    <t>Kota175</t>
+  </si>
+  <si>
+    <t>Rusia</t>
+  </si>
+  <si>
+    <t>Kab. Kediri</t>
+  </si>
+  <si>
+    <t>Kota176</t>
+  </si>
+  <si>
+    <t>St Lucia</t>
+  </si>
+  <si>
+    <t>Kab. malang</t>
+  </si>
+  <si>
+    <t>Kota177</t>
+  </si>
+  <si>
+    <t>Dominika</t>
+  </si>
+  <si>
+    <t>Lumajang</t>
+  </si>
+  <si>
+    <t>Kota178</t>
+  </si>
+  <si>
+    <t>Grenadin Kepulauan</t>
+  </si>
+  <si>
+    <t>Jember</t>
+  </si>
+  <si>
+    <t>Kota179</t>
+  </si>
+  <si>
+    <t>Puerto Riko</t>
+  </si>
+  <si>
+    <t>Banyuwangi</t>
+  </si>
+  <si>
+    <t>Kota180</t>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+  </si>
+  <si>
+    <t>Bondowoso</t>
+  </si>
+  <si>
+    <t>Kota181</t>
+  </si>
+  <si>
+    <t>Situbondo</t>
+  </si>
+  <si>
+    <t>Kota182</t>
+  </si>
+  <si>
+    <t>Rehabilitasi</t>
+  </si>
+  <si>
+    <t>Kab. Probolinggo</t>
+  </si>
+  <si>
+    <t>Kota183</t>
+  </si>
+  <si>
+    <t>Kepulauan Midway</t>
+  </si>
+  <si>
+    <t>Kab. Pasuruan</t>
+  </si>
+  <si>
+    <t>Kota184</t>
+  </si>
+  <si>
+    <t>Republik Dominika</t>
+  </si>
+  <si>
+    <t>Sidoarjo</t>
+  </si>
+  <si>
+    <t>Kota185</t>
+  </si>
+  <si>
+    <t>Jepang</t>
+  </si>
+  <si>
+    <t>Kab. Mojokerto</t>
+  </si>
+  <si>
+    <t>Kota186</t>
+  </si>
+  <si>
+    <t>Korea Selatan</t>
+  </si>
+  <si>
+    <t>Jombang</t>
+  </si>
+  <si>
+    <t>Kota187</t>
+  </si>
+  <si>
+    <t>Vietnam, Soc Republi</t>
+  </si>
+  <si>
+    <t>Nganjuk</t>
+  </si>
+  <si>
+    <t>Kota188</t>
+  </si>
+  <si>
+    <t>Korea Utara</t>
+  </si>
+  <si>
+    <t>Kab. Madiun</t>
+  </si>
+  <si>
+    <t>Kota189</t>
+  </si>
+  <si>
+    <t>Hongkong</t>
+  </si>
+  <si>
+    <t>Magetan</t>
+  </si>
+  <si>
+    <t>Kota190</t>
+  </si>
+  <si>
+    <t>Makau</t>
+  </si>
+  <si>
+    <t>Ngawi</t>
+  </si>
+  <si>
+    <t>Kota191</t>
+  </si>
+  <si>
+    <t>Kamboja</t>
+  </si>
+  <si>
+    <t>Bojonegoro</t>
+  </si>
+  <si>
+    <t>Kota192</t>
+  </si>
+  <si>
+    <t>Laos</t>
+  </si>
+  <si>
+    <t>Tuban</t>
+  </si>
+  <si>
+    <t>Kota193</t>
+  </si>
+  <si>
+    <t>Cina</t>
+  </si>
+  <si>
+    <t>Lamongan</t>
+  </si>
+  <si>
+    <t>Kota194</t>
+  </si>
+  <si>
+    <t>Trinidad dan Tobago</t>
+  </si>
+  <si>
+    <t>Gresik</t>
+  </si>
+  <si>
+    <t>Kota195</t>
+  </si>
+  <si>
+    <t>Nevis</t>
+  </si>
+  <si>
+    <t>Bangkalan</t>
+  </si>
+  <si>
+    <t>Kota196</t>
+  </si>
+  <si>
+    <t>Jamaika</t>
+  </si>
+  <si>
+    <t>Sampang</t>
+  </si>
+  <si>
+    <t>Kota197</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>Pamekasan</t>
+  </si>
+  <si>
+    <t>Kota198</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>Sumenep</t>
+  </si>
+  <si>
+    <t>Kota199</t>
+  </si>
+  <si>
+    <t>negaraTujuan200</t>
+  </si>
+  <si>
+    <t>KotaTujuan200</t>
+  </si>
+  <si>
+    <t>Kota200</t>
   </si>
 </sst>
 </file>
@@ -461,12 +2794,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -475,9 +2808,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF2D3748"/>
-      <name val="Roboto"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
@@ -487,8 +2820,67 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color rgb="FF2D3748"/>
+      <name val="Roboto"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -497,6 +2889,60 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -511,105 +2957,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -617,15 +2964,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -646,13 +2985,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -664,19 +3057,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -688,49 +3147,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -742,85 +3159,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -849,50 +3188,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -908,16 +3223,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -946,160 +3261,187 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1449,7 +3791,7 @@
   <dimension ref="A1:A106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C40" sqref="C1:C40"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1999,19 +4341,19 @@
   <sheetPr/>
   <dimension ref="A1:A40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2203,6 +4545,4369 @@
     <row r="40" spans="1:1">
       <c r="A40" t="s">
         <v>145</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C192"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="50.78125" customWidth="1"/>
+    <col min="2" max="2" width="24.859375" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C201"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="41.015625" customWidth="1"/>
+    <col min="2" max="2" width="49.7421875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.8" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="2" ht="14.8" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="3" ht="14.8" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C3" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="4" ht="14.8" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C4" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="5" ht="14.8" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C5" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="6" ht="14.8" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C6" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="7" ht="14.8" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C7" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="8" ht="14.8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C8" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="9" ht="14.8" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C9" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="10" ht="14.8" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C10" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="11" ht="14.8" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C11" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="12" ht="14.8" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C12" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="13" ht="14.8" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C13" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="14" ht="14.8" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C14" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="15" ht="14.8" spans="1:3">
+      <c r="A15" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C15" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="16" ht="14.8" spans="1:3">
+      <c r="A16" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C16" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="17" ht="14.8" spans="1:3">
+      <c r="A17" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C17" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="18" ht="14.8" spans="1:3">
+      <c r="A18" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C18" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="19" ht="14.8" spans="1:3">
+      <c r="A19" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C19" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="20" ht="14.8" spans="1:3">
+      <c r="A20" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C20" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="21" ht="14.8" spans="1:3">
+      <c r="A21" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C21" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="22" ht="14.8" spans="1:3">
+      <c r="A22" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C22" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="23" ht="14.8" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C23" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="24" ht="14.8" spans="1:3">
+      <c r="A24" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C24" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="25" ht="14.8" spans="1:3">
+      <c r="A25" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C25" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="26" ht="14.8" spans="1:3">
+      <c r="A26" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="C26" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="27" ht="14.8" spans="1:3">
+      <c r="A27" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C27" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="28" ht="14.8" spans="1:3">
+      <c r="A28" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C28" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="29" ht="14.8" spans="1:3">
+      <c r="A29" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="C29" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="30" ht="14.8" spans="1:3">
+      <c r="A30" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C30" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="31" ht="14.8" spans="1:3">
+      <c r="A31" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C31" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="32" ht="14.8" spans="1:3">
+      <c r="A32" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C32" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="33" ht="14.8" spans="1:3">
+      <c r="A33" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C33" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="34" ht="14.8" spans="1:3">
+      <c r="A34" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C34" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="35" ht="14.8" spans="1:3">
+      <c r="A35" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="C35" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="36" ht="14.8" spans="1:3">
+      <c r="A36" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C36" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="37" ht="14.8" spans="1:3">
+      <c r="A37" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C37" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="38" ht="14.8" spans="1:3">
+      <c r="A38" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C38" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="39" ht="14.8" spans="1:3">
+      <c r="A39" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C39" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="40" ht="14.8" spans="1:3">
+      <c r="A40" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C40" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="41" ht="14.8" spans="1:3">
+      <c r="A41" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C41" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="42" ht="14.8" spans="1:3">
+      <c r="A42" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="C42" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="43" ht="14.8" spans="1:3">
+      <c r="A43" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="C43" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="44" ht="14.8" spans="1:3">
+      <c r="A44" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="C44" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="45" ht="14.8" spans="1:3">
+      <c r="A45" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="C45" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="46" ht="14.8" spans="1:3">
+      <c r="A46" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C46" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="47" ht="14.8" spans="1:3">
+      <c r="A47" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="C47" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="48" ht="14.8" spans="1:3">
+      <c r="A48" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="C48" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="49" ht="14.8" spans="1:3">
+      <c r="A49" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C49" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="50" ht="14.8" spans="1:3">
+      <c r="A50" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="C50" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="51" ht="14.8" spans="1:3">
+      <c r="A51" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="C51" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="52" ht="14.8" spans="1:3">
+      <c r="A52" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="C52" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="53" ht="14.8" spans="1:3">
+      <c r="A53" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C53" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="54" ht="14.8" spans="1:3">
+      <c r="A54" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="C54" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="55" ht="14.8" spans="1:3">
+      <c r="A55" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="C55" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="56" ht="14.8" spans="1:3">
+      <c r="A56" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="C56" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="57" ht="14.8" spans="1:3">
+      <c r="A57" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C57" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="58" ht="14.8" spans="1:3">
+      <c r="A58" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="C58" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="59" ht="14.8" spans="1:3">
+      <c r="A59" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="C59" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="60" ht="14.8" spans="1:3">
+      <c r="A60" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="C60" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="61" ht="14.8" spans="1:3">
+      <c r="A61" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="C61" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="62" ht="14.8" spans="1:3">
+      <c r="A62" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="C62" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="63" ht="14.8" spans="1:3">
+      <c r="A63" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="C63" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="64" ht="14.8" spans="1:3">
+      <c r="A64" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="C64" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="65" ht="14.8" spans="1:3">
+      <c r="A65" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="C65" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="66" ht="14.8" spans="1:3">
+      <c r="A66" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="C66" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="67" ht="14.8" spans="1:3">
+      <c r="A67" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="C67" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="68" ht="14.8" spans="1:3">
+      <c r="A68" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="C68" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="69" ht="14.8" spans="1:3">
+      <c r="A69" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="C69" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="70" ht="14.8" spans="1:3">
+      <c r="A70" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="C70" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="71" ht="14.8" spans="1:3">
+      <c r="A71" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="C71" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="72" ht="14.8" spans="1:3">
+      <c r="A72" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="C72" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="73" ht="14.8" spans="1:3">
+      <c r="A73" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="C73" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="74" ht="14.8" spans="1:3">
+      <c r="A74" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="C74" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="75" ht="14.8" spans="1:3">
+      <c r="A75" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="C75" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="76" ht="14.8" spans="1:3">
+      <c r="A76" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="C76" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="77" ht="14.8" spans="1:3">
+      <c r="A77" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="C77" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="78" ht="14.8" spans="1:3">
+      <c r="A78" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="C78" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="79" ht="14.8" spans="1:3">
+      <c r="A79" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="C79" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="80" ht="14.8" spans="1:3">
+      <c r="A80" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="C80" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="81" ht="14.8" spans="1:3">
+      <c r="A81" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="C81" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="82" ht="14.8" spans="1:3">
+      <c r="A82" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="C82" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="83" ht="14.8" spans="1:3">
+      <c r="A83" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="C83" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="84" ht="14.8" spans="1:3">
+      <c r="A84" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="C84" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="85" ht="14.8" spans="1:3">
+      <c r="A85" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="C85" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="86" ht="14.8" spans="1:3">
+      <c r="A86" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="C86" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="87" ht="14.8" spans="1:3">
+      <c r="A87" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="C87" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="88" ht="14.8" spans="1:3">
+      <c r="A88" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="C88" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="89" ht="14.8" spans="1:3">
+      <c r="A89" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="C89" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="90" ht="14.8" spans="1:3">
+      <c r="A90" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="C90" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="91" ht="14.8" spans="1:3">
+      <c r="A91" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="C91" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="92" ht="14.8" spans="1:3">
+      <c r="A92" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="C92" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="93" ht="14.8" spans="1:3">
+      <c r="A93" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="C93" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="94" ht="14.8" spans="1:3">
+      <c r="A94" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="C94" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="95" ht="14.8" spans="1:3">
+      <c r="A95" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="C95" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="96" ht="14.8" spans="1:3">
+      <c r="A96" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="C96" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="97" ht="14.8" spans="1:3">
+      <c r="A97" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="C97" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="98" ht="14.8" spans="1:3">
+      <c r="A98" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="C98" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="99" ht="14.8" spans="1:3">
+      <c r="A99" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="C99" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="100" ht="14.8" spans="1:3">
+      <c r="A100" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="C100" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="101" ht="14.8" spans="1:3">
+      <c r="A101" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="C101" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="102" ht="14.8" spans="1:3">
+      <c r="A102" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="C102" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="103" ht="14.8" spans="1:3">
+      <c r="A103" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="C103" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="104" ht="14.8" spans="1:3">
+      <c r="A104" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="C104" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="105" ht="14.8" spans="1:3">
+      <c r="A105" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="C105" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="106" ht="14.8" spans="1:3">
+      <c r="A106" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C106" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="107" ht="14.8" spans="1:3">
+      <c r="A107" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="C107" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="108" ht="14.8" spans="1:3">
+      <c r="A108" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="C108" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="109" ht="14.8" spans="1:3">
+      <c r="A109" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="C109" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="110" ht="14.8" spans="1:3">
+      <c r="A110" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="C110" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="111" ht="14.8" spans="1:3">
+      <c r="A111" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="C111" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="112" ht="14.8" spans="1:3">
+      <c r="A112" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="C112" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="113" ht="14.8" spans="1:3">
+      <c r="A113" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="C113" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="114" ht="14.8" spans="1:3">
+      <c r="A114" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="C114" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="115" ht="14.8" spans="1:3">
+      <c r="A115" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="C115" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="116" ht="14.8" spans="1:3">
+      <c r="A116" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="C116" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="117" ht="14.8" spans="1:3">
+      <c r="A117" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="C117" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="118" ht="14.8" spans="1:3">
+      <c r="A118" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="C118" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="119" ht="14.8" spans="1:3">
+      <c r="A119" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="C119" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="120" ht="14.8" spans="1:3">
+      <c r="A120" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="C120" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="121" ht="14.8" spans="1:3">
+      <c r="A121" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="C121" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="122" ht="14.8" spans="1:3">
+      <c r="A122" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="C122" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="123" ht="14.8" spans="1:3">
+      <c r="A123" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="C123" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="124" ht="14.8" spans="1:3">
+      <c r="A124" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="C124" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="125" ht="14.8" spans="1:3">
+      <c r="A125" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="C125" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="126" ht="14.8" spans="1:3">
+      <c r="A126" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="C126" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="127" ht="14.8" spans="1:3">
+      <c r="A127" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="C127" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="128" ht="14.8" spans="1:3">
+      <c r="A128" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="C128" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="129" ht="14.8" spans="1:3">
+      <c r="A129" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="C129" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="130" ht="14.8" spans="1:3">
+      <c r="A130" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="C130" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="131" ht="14.8" spans="1:3">
+      <c r="A131" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="C131" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="132" ht="14.8" spans="1:3">
+      <c r="A132" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="C132" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="133" ht="14.8" spans="1:3">
+      <c r="A133" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="C133" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="134" ht="14.8" spans="1:3">
+      <c r="A134" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="C134" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="135" ht="14.8" spans="1:3">
+      <c r="A135" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="C135" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="136" ht="14.8" spans="1:3">
+      <c r="A136" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="C136" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="137" ht="14.8" spans="1:3">
+      <c r="A137" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="C137" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="138" ht="14.8" spans="1:3">
+      <c r="A138" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="C138" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="139" ht="14.8" spans="1:3">
+      <c r="A139" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="C139" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="140" ht="14.8" spans="1:3">
+      <c r="A140" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="C140" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="141" ht="14.8" spans="1:3">
+      <c r="A141" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="C141" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="142" ht="14.8" spans="1:3">
+      <c r="A142" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="C142" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="143" ht="14.8" spans="1:3">
+      <c r="A143" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="C143" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="144" ht="14.8" spans="1:3">
+      <c r="A144" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="C144" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="145" ht="14.8" spans="1:3">
+      <c r="A145" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="C145" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="146" ht="14.8" spans="1:3">
+      <c r="A146" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="C146" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="147" ht="14.8" spans="1:3">
+      <c r="A147" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="C147" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="148" ht="14.8" spans="1:3">
+      <c r="A148" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="C148" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="149" ht="14.8" spans="1:3">
+      <c r="A149" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="C149" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="150" ht="14.8" spans="1:3">
+      <c r="A150" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="C150" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="151" ht="14.8" spans="1:3">
+      <c r="A151" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="C151" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="152" ht="14.8" spans="1:3">
+      <c r="A152" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="C152" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="153" ht="14.8" spans="1:3">
+      <c r="A153" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="C153" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="154" ht="14.8" spans="1:3">
+      <c r="A154" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="C154" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="155" ht="14.8" spans="1:3">
+      <c r="A155" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="C155" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="156" ht="14.8" spans="1:3">
+      <c r="A156" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="C156" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="157" ht="14.8" spans="1:3">
+      <c r="A157" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="C157" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="158" ht="14.8" spans="1:3">
+      <c r="A158" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="C158" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="159" ht="14.8" spans="1:3">
+      <c r="A159" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="C159" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="160" ht="14.8" spans="1:3">
+      <c r="A160" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="C160" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="161" ht="14.8" spans="1:3">
+      <c r="A161" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="C161" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="162" ht="14.8" spans="1:3">
+      <c r="A162" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="C162" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="163" ht="14.8" spans="1:3">
+      <c r="A163" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="C163" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="164" ht="14.8" spans="1:3">
+      <c r="A164" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="C164" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="165" ht="14.8" spans="1:3">
+      <c r="A165" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="C165" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="166" ht="14.8" spans="1:3">
+      <c r="A166" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C166" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="167" ht="14.8" spans="1:3">
+      <c r="A167" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="C167" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="168" ht="14.8" spans="1:3">
+      <c r="A168" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="C168" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="169" ht="14.8" spans="1:3">
+      <c r="A169" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="C169" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="170" ht="14.8" spans="1:3">
+      <c r="A170" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="C170" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="171" ht="14.8" spans="1:3">
+      <c r="A171" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="C171" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="172" ht="14.8" spans="1:3">
+      <c r="A172" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="C172" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="173" ht="14.8" spans="1:3">
+      <c r="A173" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="C173" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="174" ht="14.8" spans="1:3">
+      <c r="A174" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="C174" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="175" ht="14.8" spans="1:3">
+      <c r="A175" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="C175" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="176" ht="14.8" spans="1:3">
+      <c r="A176" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="C176" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="177" ht="14.8" spans="1:3">
+      <c r="A177" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="C177" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="178" ht="14.8" spans="1:3">
+      <c r="A178" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="C178" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="179" ht="14.8" spans="1:3">
+      <c r="A179" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="C179" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="180" ht="14.8" spans="1:3">
+      <c r="A180" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="C180" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="181" ht="14.8" spans="1:3">
+      <c r="A181" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="C181" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="182" ht="14.8" spans="1:3">
+      <c r="A182" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="C182" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="183" ht="14.8" spans="1:3">
+      <c r="A183" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="C183" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="184" ht="14.8" spans="1:3">
+      <c r="A184" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="C184" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="185" ht="14.8" spans="1:3">
+      <c r="A185" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="C185" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="186" ht="14.8" spans="1:3">
+      <c r="A186" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="C186" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="187" ht="14.8" spans="1:3">
+      <c r="A187" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="C187" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="188" ht="14.8" spans="1:3">
+      <c r="A188" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="C188" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="189" ht="14.8" spans="1:3">
+      <c r="A189" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="C189" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="190" ht="14.8" spans="1:3">
+      <c r="A190" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="C190" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="191" ht="14.8" spans="1:3">
+      <c r="A191" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="C191" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="192" ht="14.8" spans="1:3">
+      <c r="A192" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="C192" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="193" ht="14.8" spans="1:3">
+      <c r="A193" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="C193" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="194" ht="14.8" spans="1:3">
+      <c r="A194" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="C194" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="195" ht="14.8" spans="1:3">
+      <c r="A195" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="C195" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="196" ht="14.8" spans="1:3">
+      <c r="A196" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="C196" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="197" ht="14.8" spans="1:3">
+      <c r="A197" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="C197" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="198" ht="14.8" spans="1:3">
+      <c r="A198" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="C198" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="199" ht="14.8" spans="1:3">
+      <c r="A199" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="C199" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="200" ht="14.8" spans="1:3">
+      <c r="A200" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="C200" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" t="s">
+        <v>920</v>
+      </c>
+      <c r="B201" t="s">
+        <v>921</v>
+      </c>
+      <c r="C201" t="s">
+        <v>922</v>
       </c>
     </row>
   </sheetData>
